--- a/manuscript/tables/list-of-functions.xlsx
+++ b/manuscript/tables/list-of-functions.xlsx
@@ -98,18 +98,6 @@
     <t>Reduces the size of a large data frame, by extracting every n-th row.</t>
   </si>
   <si>
-    <t>Respirometry data for a single sardine specimen. Data was collected over 2 hours.</t>
-  </si>
-  <si>
-    <t>Respirometry data for a single sea urchin (*Heliocidaris erythrogramma*) specimen, collected using intermittent respirometry.</t>
-  </si>
-  <si>
-    <t>Multi-column dataset containing respirometry and background respirometry data for 16 sea urchins (*Heliocidaris erythrogramma*).</t>
-  </si>
-  <si>
-    <t>Respirometry data for a single squid specimen to determine $P_{crit}$. Data was collected over a 9-hour period.</t>
-  </si>
-  <si>
     <t>`calc.rate.ft()`</t>
   </si>
   <si>
@@ -126,6 +114,18 @@
   </si>
   <si>
     <t>Corrects data for background respiration or oxygen flux.</t>
+  </si>
+  <si>
+    <t>Respirometry data for a single sardine specimen. Data were collected over 2 hours.</t>
+  </si>
+  <si>
+    <t>Respirometry data for a single squid specimen to determine $P_{crit}$. Data were collected over a 9-hour period.</t>
+  </si>
+  <si>
+    <t>Multi-column dataset containing respirometry and background respirometry data for 16 sea urchins (*Heliocidaris erythrogramma*). Data for each urchin were collected over 45 minutes.</t>
+  </si>
+  <si>
+    <t>Respirometry data for a single sea urchin (*Heliocidaris erythrogramma*) specimen collected using intermittent respirometry. Data were collected over 80 minutes.</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,7 +500,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -511,15 +511,15 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -527,7 +527,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -567,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -591,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/manuscript/tables/list-of-functions.xlsx
+++ b/manuscript/tables/list-of-functions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>**Functions**</t>
-  </si>
-  <si>
     <t>`calc.rate()`</t>
   </si>
   <si>
@@ -56,30 +53,12 @@
     <t>`subsample()`</t>
   </si>
   <si>
-    <t>**Data files**</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>`calc.rate.bg()`</t>
   </si>
   <si>
     <t>`inspect.data()`</t>
   </si>
   <si>
-    <t>`intermittent.rd`</t>
-  </si>
-  <si>
-    <t>`sardine.rd`</t>
-  </si>
-  <si>
-    <t>`squid.rd`</t>
-  </si>
-  <si>
-    <t>`urchins.rd`</t>
-  </si>
-  <si>
     <t>Checks data for errors, extracts a 2-column dataframe for analysis, and plots the data for quick visualisation.</t>
   </si>
   <si>
@@ -126,6 +105,18 @@
   </si>
   <si>
     <t>Respirometry data for a single sea urchin (*Heliocidaris erythrogramma*) specimen collected using intermittent respirometry. Data were collected over 80 minutes.</t>
+  </si>
+  <si>
+    <t>`intermittent.rd.rda`</t>
+  </si>
+  <si>
+    <t>`sardine.rd.rda`</t>
+  </si>
+  <si>
+    <t>`squid.rd.rda`</t>
+  </si>
+  <si>
+    <t>`urchins.rd.rda`</t>
   </si>
 </sst>
 </file>
@@ -148,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,19 +147,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,20 +449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="118.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -467,131 +470,115 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/manuscript/tables/list-of-functions.xlsx
+++ b/manuscript/tables/list-of-functions.xlsx
@@ -95,12 +95,6 @@
     <t>Corrects data for background respiration or oxygen flux.</t>
   </si>
   <si>
-    <t>Respirometry data for a single sardine specimen. Data were collected over 2 hours.</t>
-  </si>
-  <si>
-    <t>Respirometry data for a single squid specimen to determine $P_{crit}$. Data were collected over a 9-hour period.</t>
-  </si>
-  <si>
     <t>Multi-column dataset containing respirometry and background respirometry data for 16 sea urchins (*Heliocidaris erythrogramma*). Data for each urchin were collected over 45 minutes.</t>
   </si>
   <si>
@@ -117,6 +111,12 @@
   </si>
   <si>
     <t>`urchins.rd.rda`</t>
+  </si>
+  <si>
+    <t>Respirometry data for a single sardine specimen, *Sardinops sagax*. Data were collected over 2 hours.</t>
+  </si>
+  <si>
+    <t>Respirometry data for a single squid specimen, *Doryteuthis opalescens*, to determine $P_{crit}$. Data were collected over a 9-hour period.</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,34 +551,34 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/manuscript/tables/list-of-functions.xlsx
+++ b/manuscript/tables/list-of-functions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -35,30 +35,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>`calc.rate()`</t>
-  </si>
-  <si>
-    <t>`auto.rate()`</t>
-  </si>
-  <si>
-    <t>`convert.rate()`</t>
-  </si>
-  <si>
-    <t>`scale.rate()`</t>
-  </si>
-  <si>
     <t>`pcrit()`</t>
   </si>
   <si>
     <t>`subsample()`</t>
   </si>
   <si>
-    <t>`calc.rate.bg()`</t>
-  </si>
-  <si>
-    <t>`inspect.data()`</t>
-  </si>
-  <si>
     <t>Checks data for errors, extracts a 2-column dataframe for analysis, and plots the data for quick visualisation.</t>
   </si>
   <si>
@@ -71,27 +53,15 @@
     <t>Calculates background $RO_2$.</t>
   </si>
   <si>
-    <t>Calculates volume- and/or mass-specific $MO_2$ from $RO_2$.</t>
-  </si>
-  <si>
     <t>Reduces the size of a large data frame, by extracting every n-th row.</t>
   </si>
   <si>
-    <t>`calc.rate.ft()`</t>
-  </si>
-  <si>
     <t>Calculates "max", "min", "interval" or "best-fit" rates.</t>
   </si>
   <si>
-    <t>Converts between units of $RO_2$ (note: does not work with $MO_2$).</t>
-  </si>
-  <si>
     <t>Calculates critical oxygen tension, $P_{crit}$.</t>
   </si>
   <si>
-    <t>`adjust.rate()`</t>
-  </si>
-  <si>
     <t>Corrects data for background respiration or oxygen flux.</t>
   </si>
   <si>
@@ -117,6 +87,36 @@
   </si>
   <si>
     <t>Respirometry data for a single squid specimen, *Doryteuthis opalescens*, to determine $P_{crit}$. Data were collected over a 9-hour period.</t>
+  </si>
+  <si>
+    <t>`inspect_data()`</t>
+  </si>
+  <si>
+    <t>`calc_rate.bg()`</t>
+  </si>
+  <si>
+    <t>`calc_rate()`</t>
+  </si>
+  <si>
+    <t>`calc_rate.ft()`</t>
+  </si>
+  <si>
+    <t>`auto_rate()`</t>
+  </si>
+  <si>
+    <t>`adjust_rate()`</t>
+  </si>
+  <si>
+    <t>`convert_rate()`</t>
+  </si>
+  <si>
+    <t>`convert_DO()`</t>
+  </si>
+  <si>
+    <t>Converts between units of $RO_2$.</t>
+  </si>
+  <si>
+    <t>Calculates volumetric and/or mass-specific $MO_2$ from $RO_2$.</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,114 +471,114 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
